--- a/contratos/contratos-12-2011.xlsx
+++ b/contratos/contratos-12-2011.xlsx
@@ -439,10 +439,10 @@
     <t>TOME SARA EVA GRACIELA</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>COOP. DE PROVISION DE OBRAS Y SERVICIOS PUBLICOS URUGUAY LTDA.</t>
@@ -772,262 +772,262 @@
     <t>279</t>
   </si>
   <si>
-    <t>459,00</t>
-  </si>
-  <si>
-    <t>267,60</t>
-  </si>
-  <si>
-    <t>456,49</t>
-  </si>
-  <si>
-    <t>4.912,10</t>
-  </si>
-  <si>
-    <t>42.525,96</t>
-  </si>
-  <si>
-    <t>16.424,42</t>
-  </si>
-  <si>
-    <t>2.530,00</t>
-  </si>
-  <si>
-    <t>7.720,31</t>
-  </si>
-  <si>
-    <t>3.540,00</t>
-  </si>
-  <si>
-    <t>237,60</t>
-  </si>
-  <si>
-    <t>560,00</t>
-  </si>
-  <si>
-    <t>3,72</t>
-  </si>
-  <si>
-    <t>156,91</t>
-  </si>
-  <si>
-    <t>6.501,60</t>
-  </si>
-  <si>
-    <t>2.391,76</t>
-  </si>
-  <si>
-    <t>2.205,00</t>
-  </si>
-  <si>
-    <t>1.713,00</t>
-  </si>
-  <si>
-    <t>17.568,54</t>
-  </si>
-  <si>
-    <t>1.908,88</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>2.535,00</t>
-  </si>
-  <si>
-    <t>4.152,00</t>
-  </si>
-  <si>
-    <t>1.622,00</t>
-  </si>
-  <si>
-    <t>33.640,00</t>
-  </si>
-  <si>
-    <t>1.715,00</t>
-  </si>
-  <si>
-    <t>999,46</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>34.332,00</t>
-  </si>
-  <si>
-    <t>3.592,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>1.055,76</t>
-  </si>
-  <si>
-    <t>44,41</t>
-  </si>
-  <si>
-    <t>226.116,45</t>
-  </si>
-  <si>
-    <t>158.924,80</t>
-  </si>
-  <si>
-    <t>48,58</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>59,67</t>
-  </si>
-  <si>
-    <t>10.992,50</t>
-  </si>
-  <si>
-    <t>1.953,20</t>
-  </si>
-  <si>
-    <t>289,00</t>
-  </si>
-  <si>
-    <t>2.664,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>4.670,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>9.880,54</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>110,50</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>8.751,61</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>2.570,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>603,03</t>
-  </si>
-  <si>
-    <t>6.250,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>41.985,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>1.043,20</t>
-  </si>
-  <si>
-    <t>1.020,00</t>
-  </si>
-  <si>
-    <t>432,00</t>
-  </si>
-  <si>
-    <t>387,00</t>
-  </si>
-  <si>
-    <t>98,91</t>
-  </si>
-  <si>
-    <t>5.330,79</t>
-  </si>
-  <si>
-    <t>833,09</t>
-  </si>
-  <si>
-    <t>43.396,20</t>
-  </si>
-  <si>
-    <t>3.289,03</t>
-  </si>
-  <si>
-    <t>241.531,20</t>
-  </si>
-  <si>
-    <t>1.322.086,87</t>
-  </si>
-  <si>
-    <t>435,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>31.680,00</t>
-  </si>
-  <si>
-    <t>66.600,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>223.551,54</t>
-  </si>
-  <si>
-    <t>3.184,63</t>
-  </si>
-  <si>
-    <t>3.950,00</t>
-  </si>
-  <si>
-    <t>7.680,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
+    <t>459.00</t>
+  </si>
+  <si>
+    <t>267.60</t>
+  </si>
+  <si>
+    <t>456.49</t>
+  </si>
+  <si>
+    <t>4912.10</t>
+  </si>
+  <si>
+    <t>42525.96</t>
+  </si>
+  <si>
+    <t>16424.42</t>
+  </si>
+  <si>
+    <t>2530.00</t>
+  </si>
+  <si>
+    <t>7720.31</t>
+  </si>
+  <si>
+    <t>3540.00</t>
+  </si>
+  <si>
+    <t>237.60</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>156.91</t>
+  </si>
+  <si>
+    <t>6501.60</t>
+  </si>
+  <si>
+    <t>2391.76</t>
+  </si>
+  <si>
+    <t>2205.00</t>
+  </si>
+  <si>
+    <t>1713.00</t>
+  </si>
+  <si>
+    <t>17568.54</t>
+  </si>
+  <si>
+    <t>1908.88</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>2535.00</t>
+  </si>
+  <si>
+    <t>4152.00</t>
+  </si>
+  <si>
+    <t>1622.00</t>
+  </si>
+  <si>
+    <t>33640.00</t>
+  </si>
+  <si>
+    <t>1715.00</t>
+  </si>
+  <si>
+    <t>999.46</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>34332.00</t>
+  </si>
+  <si>
+    <t>3592.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>1055.76</t>
+  </si>
+  <si>
+    <t>44.41</t>
+  </si>
+  <si>
+    <t>226116.45</t>
+  </si>
+  <si>
+    <t>158924.80</t>
+  </si>
+  <si>
+    <t>48.58</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>59.67</t>
+  </si>
+  <si>
+    <t>10992.50</t>
+  </si>
+  <si>
+    <t>1953.20</t>
+  </si>
+  <si>
+    <t>289.00</t>
+  </si>
+  <si>
+    <t>2664.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>4670.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>9880.54</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>110.50</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>8751.61</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>2570.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>603.03</t>
+  </si>
+  <si>
+    <t>6250.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>41985.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>1043.20</t>
+  </si>
+  <si>
+    <t>1020.00</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>387.00</t>
+  </si>
+  <si>
+    <t>98.91</t>
+  </si>
+  <si>
+    <t>5330.79</t>
+  </si>
+  <si>
+    <t>833.09</t>
+  </si>
+  <si>
+    <t>43396.20</t>
+  </si>
+  <si>
+    <t>3289.03</t>
+  </si>
+  <si>
+    <t>241531.20</t>
+  </si>
+  <si>
+    <t>1322086.87</t>
+  </si>
+  <si>
+    <t>435.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>31680.00</t>
+  </si>
+  <si>
+    <t>66600.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>223551.54</t>
+  </si>
+  <si>
+    <t>3184.63</t>
+  </si>
+  <si>
+    <t>3950.00</t>
+  </si>
+  <si>
+    <t>7680.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
   </si>
 </sst>
 </file>
